--- a/WSC/Test Report/SLCM/WSC SLCM_Hostel_Master Screens.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Hostel_Master Screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="712"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="712" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Hostel_Masters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="271">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -56,9 +59,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-Hostel Admin: hostel.admin@gmail.com, PW: wsc@123
-Warden: hostel.warden@gmail.com,  PW: wsc@123
-Student: student@test.com, PW: admin@123</t>
+Hostel Admin: hostel.admin@gmail.com, PW: erp@123
+Warden: hostel.warden@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -82,7 +85,7 @@
     <t>Pass/Fail/Not Executed/Suspended</t>
   </si>
   <si>
-    <t>Comment</t>
+    <t>Comment/ Bug ID</t>
   </si>
   <si>
     <t>Home &gt; Hostel &gt; Masters &gt; Hostel Masters</t>
@@ -217,6 +220,21 @@
   <si>
     <t>hostel type dropdown   is clickable. data   is showing in dropdown list. User is  able to select the dat
 it   a link field. it   linked with hostel type screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on hostel capacity, enter numeric  value </t>
+  </si>
+  <si>
+    <t>hostel capacity text box should be clickable. user should able to type numeric value</t>
+  </si>
+  <si>
+    <t>Accepting -ve value as input</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>307*</t>
   </si>
   <si>
     <t>Verify the Start date field</t>
@@ -395,6 +413,9 @@
     <t>Add Room masters, Hostel and Room Info, Default Room Type Info, Current Room Type</t>
   </si>
   <si>
+    <t>Comment</t>
+  </si>
+  <si>
     <t>Home &gt; Hostel &gt; Masters &gt;  Room Masters</t>
   </si>
   <si>
@@ -907,19 +928,34 @@
     <t xml:space="preserve"> saved data should be shown on  Hostel Material page</t>
   </si>
   <si>
+    <t xml:space="preserve"> saved data is showing in Hostel Material page</t>
+  </si>
+  <si>
     <t>Click Add   Hostel Material button</t>
   </si>
   <si>
     <t>Add  Hostel Material button should be clickable and new  Hostel Material addition page should be open</t>
   </si>
   <si>
+    <t>Add  Hostel Material button is clickable and new  Hostel Material addition page is open</t>
+  </si>
+  <si>
+    <t>Page should not proceed. Alert message should be shown for unfilled mandatory fields. Mandatory fields is mentioned as * symbol.</t>
+  </si>
+  <si>
     <t>click on material textfield, fill it</t>
   </si>
   <si>
     <t>material field should be clickable. user should able to fill the material field</t>
   </si>
   <si>
+    <t>material field is clickable. user is able to fill the material field</t>
+  </si>
+  <si>
     <t>Page should be saved successfully. New Hostel Material should be created</t>
+  </si>
+  <si>
+    <t>Page is saved successfully. New Hostel Material is  created</t>
   </si>
 </sst>
 </file>
@@ -927,10 +963,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1101,7 +1137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1111,12 +1147,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F5C5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,7 +1343,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1342,13 +1372,22 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color auto="1"/>
-      </left>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1363,6 +1402,19 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1477,16 +1529,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1495,7 +1547,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1507,119 +1559,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1632,43 +1684,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,14 +1744,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2014,10 +2075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -2041,11 +2102,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
@@ -2061,51 +2122,55 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:6">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2113,347 +2178,339 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:6">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" s="1" customFormat="1" spans="1:6">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:6">
-      <c r="A12" s="22">
-        <v>1</v>
-      </c>
+      <c r="A12" s="25"/>
       <c r="B12" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:6">
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:6">
-      <c r="A13" s="22">
+      <c r="E13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:6">
+      <c r="A14" s="25">
         <v>2</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A14" s="22">
+      <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="25">
         <v>3</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A15" s="22">
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="25">
         <v>4</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:6">
-      <c r="A16" s="22">
+      <c r="D16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="25">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A17" s="22">
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="25">
         <v>6</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A18" s="22">
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A19" s="25">
         <v>7</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A19" s="22">
+      <c r="D19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A20" s="25">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A20" s="22">
+      <c r="D20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="25">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A21" s="22">
+      <c r="D21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="25">
         <v>10</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A22" s="22">
+      <c r="D22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="25">
         <v>11</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:6">
-      <c r="A23" s="22">
+      <c r="D23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="25">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A24" s="22">
+      <c r="D24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A25" s="25">
         <v>13</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A25" s="22">
+      <c r="D25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A26" s="25">
         <v>14</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:6">
-      <c r="A26" s="22">
+      <c r="D26" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:6">
+      <c r="A27" s="25">
         <v>15</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A27" s="22">
+      <c r="D27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:6">
+      <c r="A28" s="25">
         <v>16</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A28" s="22">
-        <v>17</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>70</v>
@@ -2464,14 +2521,14 @@
       <c r="D28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
+      <c r="E28" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="22">
-        <v>18</v>
+      <c r="A29" s="25">
+        <v>17</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>73</v>
@@ -2482,14 +2539,14 @@
       <c r="D29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:6">
-      <c r="A30" s="22">
-        <v>19</v>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="25">
+        <v>18</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>76</v>
@@ -2500,14 +2557,14 @@
       <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>24</v>
+      <c r="E30" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:6">
-      <c r="A31" s="22">
-        <v>20</v>
+    <row r="31" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A31" s="25">
+        <v>19</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>79</v>
@@ -2518,14 +2575,14 @@
       <c r="D31" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>24</v>
+      <c r="E31" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="22">
-        <v>21</v>
+    <row r="32" s="1" customFormat="1" spans="1:6">
+      <c r="A32" s="25">
+        <v>20</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>82</v>
@@ -2536,14 +2593,14 @@
       <c r="D32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>24</v>
+      <c r="E32" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:6">
-      <c r="A33" s="22">
-        <v>22</v>
+      <c r="A33" s="25">
+        <v>21</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>85</v>
@@ -2554,62 +2611,98 @@
       <c r="D33" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>24</v>
+      <c r="E33" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="11"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="11"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:5">
-      <c r="A36" s="11"/>
-      <c r="B36" s="14" t="s">
+    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A34" s="25">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15" t="s">
+      <c r="C34" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="D34" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A37" s="11"/>
-      <c r="B37" s="17" t="s">
+      <c r="E34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="25">
+        <v>23</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C35" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D35" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:1">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:1">
-      <c r="A39" s="11"/>
+      <c r="E35" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:1">
+      <c r="A36" s="18"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:1">
+      <c r="A37" s="18"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:5">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A39" s="18"/>
+      <c r="B39" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="1" spans="1:1">
-      <c r="A40" s="11"/>
+      <c r="A40" s="18"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="1:1">
-      <c r="A41" s="11"/>
+      <c r="A41" s="18"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:1">
+      <c r="A42" s="18"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:1">
+      <c r="A43" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2619,10 +2712,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2641,17 +2734,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -2668,55 +2761,59 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="16"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="16"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" s="1" customFormat="1" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2725,431 +2822,440 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" s="1" customFormat="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="22">
-        <v>1</v>
-      </c>
+      <c r="A12" s="25"/>
       <c r="B12" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="22">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>102</v>
+      <c r="A13" s="25">
+        <v>1</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>108</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="22">
-        <v>3</v>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="25">
+        <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>111</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="22">
-        <v>4</v>
+      <c r="A15" s="25">
+        <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="22">
-        <v>5</v>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="25">
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>115</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="22">
-        <v>6</v>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="25">
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="22">
-        <v>7</v>
+    <row r="18" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A18" s="25">
+        <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>119</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="22">
-        <v>8</v>
+      <c r="A19" s="25">
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>122</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="22">
-        <v>9</v>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="25">
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>125</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="22">
-        <v>10</v>
+      <c r="A21" s="25">
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>128</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="22">
-        <v>11</v>
+    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A22" s="25">
+        <v>10</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>131</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A23" s="22">
-        <v>12</v>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="25">
+        <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
+        <v>134</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:7">
-      <c r="A24" s="22">
-        <v>13</v>
+    <row r="24" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A24" s="25">
+        <v>12</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
+        <v>137</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A25" s="22">
-        <v>14</v>
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="25">
+        <v>13</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>24</v>
+        <v>140</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="22">
-        <v>15</v>
+    <row r="26" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A26" s="25">
+        <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
+        <v>143</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="22">
-        <v>16</v>
+    <row r="27" s="1" customFormat="1" spans="1:7">
+      <c r="A27" s="25">
+        <v>15</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>24</v>
+        <v>145</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:7">
-      <c r="A28" s="22">
-        <v>17</v>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A28" s="25">
+        <v>16</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>24</v>
+        <v>148</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="11"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:7">
+      <c r="A29" s="25">
+        <v>17</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:1">
-      <c r="A32" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:1">
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A32" s="18"/>
+      <c r="B32" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:1">
-      <c r="A33" s="11"/>
+      <c r="A33" s="18"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="11"/>
+      <c r="A34" s="18"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:1">
-      <c r="A35" s="11"/>
+      <c r="A35" s="18"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:1">
+      <c r="A36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B31:C31"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3159,10 +3265,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3181,17 +3287,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -3208,287 +3314,300 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>146</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
+      <c r="A11" s="25"/>
       <c r="B11" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="22">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>151</v>
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>155</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>157</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="22">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="25">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>160</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="22">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="25">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>163</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="22">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="25">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="22">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="25">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="22">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="25">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:1">
-      <c r="A18" s="11"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="17" t="s">
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="25">
+        <v>7</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:1">
-      <c r="A21" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="18"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:5">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3498,10 +3617,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3520,17 +3639,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -3547,401 +3666,414 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>173</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
+      <c r="A11" s="25"/>
       <c r="B11" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="22">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>172</v>
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>176</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>178</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="22">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="25">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>181</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="22">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="25">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>184</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="22">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="25">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="22">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="25">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="22">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="25">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>187</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="22">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="25">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>190</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="22">
-        <v>9</v>
+      <c r="A19" s="25">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>193</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="22">
-        <v>10</v>
+      <c r="A20" s="25">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>188</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>194</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="22">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="25">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>197</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="22">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A22" s="25">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>200</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:7">
-      <c r="A23" s="22">
-        <v>13</v>
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A23" s="25">
+        <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>24</v>
+        <v>203</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:7">
+      <c r="A24" s="25">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="11"/>
+      <c r="C24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="11"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3951,10 +4083,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3973,17 +4105,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -4000,306 +4132,319 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>201</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
+      <c r="A11" s="25"/>
       <c r="B11" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="22">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>206</v>
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>210</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>212</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="22">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="25">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>215</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A14" s="22">
-        <v>4</v>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="25">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>218</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="22">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A15" s="25">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>219</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="22">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="25">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="22">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="25">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>222</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="22">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="25">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>190</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="11"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="17" t="s">
+    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A19" s="25">
+        <v>8</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4309,10 +4454,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4331,17 +4476,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -4358,387 +4503,400 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+    <row r="3" customFormat="1" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:7">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="C10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:7">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
+      <c r="A11" s="25"/>
       <c r="B11" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="22">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>226</v>
+      <c r="A12" s="25">
+        <v>1</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>232</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A13" s="22">
-        <v>3</v>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="25">
+        <v>2</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>235</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="22">
-        <v>4</v>
+      <c r="A14" s="25">
+        <v>3</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>237</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>238</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="22">
-        <v>5</v>
+    <row r="15" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="25">
+        <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>24</v>
+        <v>219</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A16" s="22">
-        <v>6</v>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="25">
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>233</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>116</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="22">
-        <v>7</v>
+    <row r="17" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A17" s="25">
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>241</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="22">
-        <v>8</v>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="25">
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>24</v>
+        <v>244</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="22">
-        <v>9</v>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="25">
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>68</v>
+        <v>189</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>24</v>
+        <v>190</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="22">
-        <v>10</v>
+    <row r="20" s="1" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="25">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>239</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>24</v>
+        <v>245</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="22">
-        <v>11</v>
+    <row r="21" s="1" customFormat="1" ht="45" spans="1:7">
+      <c r="A21" s="25">
+        <v>10</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>24</v>
+        <v>248</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:7">
-      <c r="A22" s="22">
-        <v>12</v>
+    <row r="22" s="1" customFormat="1" ht="60" spans="1:7">
+      <c r="A22" s="25">
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
+        <v>249</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>251</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="11"/>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="25">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="11"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:1">
-      <c r="A27" s="11"/>
+      <c r="A24" s="18"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:1">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A27" s="18"/>
+      <c r="B27" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:1">
-      <c r="A28" s="11"/>
+      <c r="A28" s="18"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:1">
-      <c r="A29" s="11"/>
+      <c r="A29" s="18"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:1">
-      <c r="A30" s="11"/>
+      <c r="A30" s="18"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:1">
+      <c r="A31" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4747,13 +4905,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
+  <sheetPr/>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4761,7 +4917,7 @@
     <col min="1" max="1" width="12.4285714285714" style="1" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="77.4285714285714" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.8571428571429" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.5714285714286" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.2857142857143" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
@@ -4772,13 +4928,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -4795,193 +4951,255 @@
         <v>6</v>
       </c>
       <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="165" spans="1:4">
+      <c r="C4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="75" spans="1:3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="D6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C7" s="3"/>
+      <c r="A7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="12"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>167</v>
+      <c r="C9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
-      <c r="A11" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:6">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:3">
-      <c r="A12" s="11">
+      <c r="B11" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="11">
+      <c r="B12" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="11">
+      <c r="B13" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:3">
-      <c r="A15" s="11">
+      <c r="C14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:6">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:3">
-      <c r="A16" s="11">
+      <c r="C15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="14">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:3">
-      <c r="A17" s="11">
+      <c r="B16" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A17" s="14">
         <v>7</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:1">
-      <c r="A18" s="11"/>
+      <c r="B17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:6">
+      <c r="A18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="11"/>
+      <c r="A19" s="18"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>90</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A21" s="11"/>
-      <c r="B21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="11"/>
+      <c r="A22" s="18"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
-      <c r="A23" s="11"/>
+      <c r="A23" s="18"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="18"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
-      <c r="A25" s="11"/>
+      <c r="A25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D2:F2"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/WSC/Test Report/SLCM/WSC SLCM_Hostel_Master Screens.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Hostel_Master Screens.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="271">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -4456,8 +4456,8 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4906,10 +4906,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -4954,99 +4954,89 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="9" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="75" spans="1:3">
-      <c r="A5" s="3">
+    <row r="6" s="1" customFormat="1" ht="75" spans="1:3">
+      <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:3">
-      <c r="A7" s="9" t="s">
+    <row r="7" s="1" customFormat="1" spans="1:2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="C8" s="12"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15" t="s">
+    <row r="11" s="1" customFormat="1" spans="1:6">
+      <c r="A11" s="14"/>
+      <c r="B11" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:6">
-      <c r="A11" s="14">
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:6">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B12" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C12" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A12" s="14">
-        <v>2</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>261</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>25</v>
@@ -5055,70 +5045,70 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A13" s="14">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A14" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C14" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D14" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A14" s="14">
+      <c r="E14" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A15" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="E14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:6">
-      <c r="A15" s="14">
+      <c r="E15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:6">
+      <c r="A16" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A16" s="14">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>25</v>
@@ -5127,65 +5117,80 @@
     </row>
     <row r="17" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A17" s="14">
+        <v>6</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="14">
         <v>7</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:6">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
       <c r="E18" s="15" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="18"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
+    <row r="19" s="1" customFormat="1" spans="1:6">
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:1">
       <c r="A20" s="18"/>
-      <c r="B20" s="19" t="s">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20" t="s">
+      <c r="C21" s="19"/>
+      <c r="D21" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E21" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:5">
-      <c r="A21" s="18"/>
-      <c r="B21" s="22" t="s">
+    <row r="22" s="1" customFormat="1" ht="30" spans="1:5">
+      <c r="A22" s="18"/>
+      <c r="B22" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C22" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D22" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:1">
-      <c r="A22" s="18"/>
+      <c r="E22" s="24" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:1">
       <c r="A23" s="18"/>
@@ -5195,12 +5200,15 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="1:1">
       <c r="A25" s="18"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
